--- a/res/trials.xlsx
+++ b/res/trials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rima-mariarahal/science/keeplooking/keeplooking/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rima-mariarahal/science/realgroups/realgroups/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8177E5A2-D22E-C64E-AD1A-B56ED9E0EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30069EB7-568E-BD44-B97B-5C9112253D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="2340" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{46A3392B-8735-774F-B60D-1E4EA857EEDA}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="final" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">final!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">final!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">prep!$A$1:$Z$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">random!$A$1:$B$80</definedName>
     <definedName name="titant_giants" localSheetId="0">prep!$B$1:$K$81</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
   <si>
     <t>s1</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>finalitemnr</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -6453,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="X66">
-        <f t="shared" ref="X66:X97" si="34">IF(AND(V66&gt;0,W66&lt;0),1,0)</f>
+        <f t="shared" ref="X66:X81" si="34">IF(AND(V66&gt;0,W66&lt;0),1,0)</f>
         <v>0</v>
       </c>
       <c r="Y66">
@@ -6461,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="Z66" t="b">
-        <f t="shared" ref="Z66:Z97" si="36">(X66+Y66)&gt;0</f>
+        <f t="shared" ref="Z66:Z81" si="36">(X66+Y66)&gt;0</f>
         <v>1</v>
       </c>
     </row>
@@ -7854,7 +7869,7 @@
       </c>
       <c r="B1">
         <f t="shared" ref="B1:B32" ca="1" si="0">RANDBETWEEN(1,10000)</f>
-        <v>2328</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7863,7 +7878,7 @@
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>4323</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7872,7 +7887,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>9724</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7881,7 +7896,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>7674</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7890,7 +7905,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3988</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7899,7 +7914,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>5283</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7908,7 +7923,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6914</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -7917,7 +7932,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1270</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7926,7 +7941,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>4205</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -7935,7 +7950,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>3543</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -7944,7 +7959,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>7518</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -7953,7 +7968,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>2495</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -7962,7 +7977,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>3248</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -7971,7 +7986,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7025</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -7980,7 +7995,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>8496</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -7989,7 +8004,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>9108</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -7998,7 +8013,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9191</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -8007,7 +8022,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>723</v>
+        <v>8259</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8016,7 +8031,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>2053</v>
+        <v>7324</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -8025,7 +8040,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>8311</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -8034,7 +8049,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>3001</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -8043,7 +8058,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>7029</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -8052,7 +8067,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>8199</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -8061,7 +8076,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>7272</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -8070,7 +8085,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>3093</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -8079,7 +8094,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>8463</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -8088,7 +8103,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>5393</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -8097,7 +8112,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>2469</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -8106,7 +8121,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>4033</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -8115,7 +8130,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>2194</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -8124,7 +8139,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>4366</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -8133,7 +8148,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>6995</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -8142,7 +8157,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B64" ca="1" si="1">RANDBETWEEN(1,10000)</f>
-        <v>2875</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -8151,7 +8166,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>8926</v>
+        <v>9664</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -8160,7 +8175,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>5865</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -8169,7 +8184,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>3709</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -8178,7 +8193,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>1878</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -8187,7 +8202,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>1996</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -8196,7 +8211,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -8205,7 +8220,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>2489</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -8214,7 +8229,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>7507</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -8223,7 +8238,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>5656</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -8232,7 +8247,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>1746</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -8241,7 +8256,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>4518</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -8250,7 +8265,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>1127</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -8259,7 +8274,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>1472</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -8268,7 +8283,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>2698</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -8277,7 +8292,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>8995</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -8286,7 +8301,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>6503</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -8295,7 +8310,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>3669</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -8304,7 +8319,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>6251</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -8313,7 +8328,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>9947</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -8322,7 +8337,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>2936</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -8331,7 +8346,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>1285</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -8340,7 +8355,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>8095</v>
+        <v>832</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -8349,7 +8364,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>6124</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -8358,7 +8373,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>5392</v>
+        <v>8883</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -8367,7 +8382,7 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>7669</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -8376,7 +8391,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>6575</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -8385,7 +8400,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>3404</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -8394,7 +8409,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>894</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -8403,7 +8418,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>6279</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -8412,7 +8427,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -8421,7 +8436,7 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>9337</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -8430,7 +8445,7 @@
       </c>
       <c r="B65">
         <f t="shared" ref="B65:B80" ca="1" si="2">RANDBETWEEN(1,10000)</f>
-        <v>7015</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -8439,7 +8454,7 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>6296</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -8448,7 +8463,7 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>9524</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -8457,7 +8472,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>3829</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -8466,7 +8481,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>7209</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -8475,7 +8490,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>8640</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -8484,7 +8499,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>7575</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -8493,7 +8508,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>1661</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -8502,7 +8517,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>9331</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -8511,7 +8526,7 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>9277</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -8520,7 +8535,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>9688</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -8529,7 +8544,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="2"/>
-        <v>9296</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -8538,7 +8553,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="2"/>
-        <v>8206</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -8547,7 +8562,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="2"/>
-        <v>4374</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -8556,7 +8571,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="2"/>
-        <v>6885</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -8565,7 +8580,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="2"/>
-        <v>1763</v>
+        <v>3672</v>
       </c>
     </row>
   </sheetData>
@@ -8580,15 +8595,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C6D6DE-18C2-5D4D-BAF0-7F3FEB66671F}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -8640,8 +8655,11 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8693,8 +8711,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8746,8 +8767,11 @@
       <c r="Q3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8799,8 +8823,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8852,8 +8879,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8905,8 +8935,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8958,8 +8991,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9011,8 +9047,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9064,8 +9103,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9117,8 +9159,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9170,8 +9215,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9223,8 +9271,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9276,8 +9327,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9329,8 +9383,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9382,8 +9439,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9435,8 +9495,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9488,8 +9551,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9541,8 +9607,11 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9594,8 +9663,11 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9647,8 +9719,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9700,8 +9775,11 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9753,8 +9831,11 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9806,8 +9887,11 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9859,8 +9943,11 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9912,8 +9999,11 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9965,8 +10055,11 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10018,8 +10111,11 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10071,8 +10167,11 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10124,8 +10223,11 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10177,8 +10279,11 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10230,8 +10335,11 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10283,8 +10391,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10336,8 +10447,11 @@
       <c r="Q33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10389,8 +10503,11 @@
       <c r="Q34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10442,8 +10559,11 @@
       <c r="Q35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10495,8 +10615,11 @@
       <c r="Q36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10548,8 +10671,11 @@
       <c r="Q37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10601,8 +10727,11 @@
       <c r="Q38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10654,8 +10783,11 @@
       <c r="Q39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10707,8 +10839,11 @@
       <c r="Q40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10760,8 +10895,11 @@
       <c r="Q41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10813,8 +10951,11 @@
       <c r="Q42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10866,8 +11007,11 @@
       <c r="Q43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10919,8 +11063,11 @@
       <c r="Q44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10972,8 +11119,11 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11025,8 +11175,11 @@
       <c r="Q46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11078,8 +11231,11 @@
       <c r="Q47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11131,8 +11287,11 @@
       <c r="Q48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11184,8 +11343,11 @@
       <c r="Q49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11237,8 +11399,11 @@
       <c r="Q50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11290,8 +11455,11 @@
       <c r="Q51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11343,8 +11511,11 @@
       <c r="Q52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11396,8 +11567,11 @@
       <c r="Q53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11449,8 +11623,11 @@
       <c r="Q54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11502,8 +11679,11 @@
       <c r="Q55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11555,8 +11735,11 @@
       <c r="Q56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11608,8 +11791,11 @@
       <c r="Q57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11661,8 +11847,11 @@
       <c r="Q58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11714,8 +11903,11 @@
       <c r="Q59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11767,8 +11959,11 @@
       <c r="Q60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11820,11 +12015,14 @@
       <c r="Q61">
         <v>1</v>
       </c>
+      <c r="R61" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{29C6D6DE-18C2-5D4D-BAF0-7F3FEB66671F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q65">
-      <sortCondition ref="O1:O65"/>
+  <autoFilter ref="A1:R1" xr:uid="{29C6D6DE-18C2-5D4D-BAF0-7F3FEB66671F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R61">
+      <sortCondition ref="A1:A61"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="O1:O61">
